--- a/PrzypadkiTestowe.xlsx
+++ b/PrzypadkiTestowe.xlsx
@@ -66,17 +66,6 @@
 https://guitarcenter.pl/catalog/logreg.php</t>
   </si>
   <si>
-    <t>1. Otwórz https://guitarcenter.pl/catalog/logreg.php
-2. Wprowadź imie
-3. Wprowadź nazwisko
-4. Wprowadź Email
-5. Wprowadź telefon
-6. Wprowadź hasło
-7. Powtórz hasło
-8. Zaakceptuj regulamin
-9. Kliknij "Załóż konto"</t>
-  </si>
-  <si>
     <t>Informacja o pomyślnym założeniu konta</t>
   </si>
   <si>
@@ -96,11 +85,6 @@
   </si>
   <si>
     <t>BRAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz https://guitarcenter.pl/catalog/logreg.php
-2. Kliknij "Załóż konto"
-</t>
   </si>
   <si>
     <t>Informacja o nieprawidłowym wypełnieniu każdego z wymaganych pól formularza.</t>
@@ -284,17 +268,6 @@
   </si>
   <si>
     <t>Rejestracja na stronie bez potwierdzenia hasła</t>
-  </si>
-  <si>
-    <t>1. Otwórz https://guitarcenter.pl/catalog/logreg.php
-2. Wprowadź imie
-3. Wprowadź nazwisko
-4. Wprowadź Email
-5. Wprowadź telefon
-6. Wprowadź hasło
-7. Pole "Powtórz hasło" pozostaw puste
-8. Zaakceptuj regulamin
-9. Kliknij "Załóż konto"</t>
   </si>
   <si>
     <t>GC.FR.7.3</t>
@@ -314,17 +287,6 @@
 Powtórz hasło: marek</t>
   </si>
   <si>
-    <t>1. Otwórz https://guitarcenter.pl/catalog/logreg.php
-2. Wprowadź imie
-3. Wprowadź nazwisko
-4. Wprowadź Email
-5. Wprowadź telefon
-6. Wprowadź hasło
-7. Powtórz hasło wprowadzając błędną wartość
-8. Zaakceptuj regulamin
-9. Kliknij "Załóż konto"</t>
-  </si>
-  <si>
     <t>GC.FR.7.4</t>
   </si>
   <si>
@@ -334,17 +296,6 @@
     <t>Rejestracja na stronie bez akceptacji regulaminu</t>
   </si>
   <si>
-    <t>1. Otwórz https://guitarcenter.pl/catalog/logreg.php
-2. Wprowadź imie
-3. Wprowadź nazwisko
-4. Wprowadź Email
-5. Wprowadź telefon
-6. Wprowadź hasło
-7. Powtórz hasło
-8. Checkbox przy akceptacji regulaminu pozostaw pusty
-9. Kliknij "Załóż konto"</t>
-  </si>
-  <si>
     <t>Informacja o konieczności akceptacji regulaminu</t>
   </si>
   <si>
@@ -352,19 +303,6 @@
   </si>
   <si>
     <t>Rejestracja na stronie przy podaniu poprawnych danych oraz wyrażeniu zgody na przesyłanie informacji handlowych oraz na wykorzystanie danych do celów marketingowych</t>
-  </si>
-  <si>
-    <t>1. Otwórz https://guitarcenter.pl/catalog/logreg.php
-2. Wprowadź imie
-3. Wprowadź nazwisko
-4. Wprowadź Email
-5. Wprowadź telefon
-6. Wprowadź hasło
-7. Powtórz hasło
-8. Zaakceptuj regulamin
-9. Wyraź zgodę na przesyłanie informacji handlowej
-10. Wyraź zgodę na wykorzystanie danych do celów marketingowych
-11. Kliknij "Załóż konto"</t>
   </si>
   <si>
     <t>Rejestracja na stronie przy podaniu adresu email znajdującego się w bazie</t>
@@ -381,6 +319,62 @@
   </si>
   <si>
     <t>Informacja o adresie email znajdującym się już w bazie</t>
+  </si>
+  <si>
+    <t>1. Wprowadź imie
+2. Wprowadź nazwisko
+3. Wprowadź Email
+4. Wprowadź telefon
+5. Wprowadź hasło
+6. Powtórz hasło
+7. Zaakceptuj regulamin
+8. Kliknij "Załóż konto"</t>
+  </si>
+  <si>
+    <t>1. Wprowadź imie
+2. Wprowadź nazwisko
+3. Wprowadź Email
+4. Wprowadź telefon
+5. Wprowadź hasło
+6. Pole "Powtórz hasło" pozostaw puste
+7. Zaakceptuj regulamin
+8. Kliknij "Załóż konto"</t>
+  </si>
+  <si>
+    <t>1. Wprowadź imie
+2. Wprowadź nazwisko
+3. Wprowadź Email
+4. Wprowadź telefon
+5. Wprowadź hasło
+6. Powtórz hasło wprowadzając błędną wartość
+7. Zaakceptuj regulamin
+8. Kliknij "Załóż konto"</t>
+  </si>
+  <si>
+    <t>1. Wprowadź imie
+2. Wprowadź nazwisko
+3. Wprowadź Email
+4. Wprowadź telefon
+5. Wprowadź hasło
+6. Powtórz hasło
+7. Pole wyboru przy akceptacji regulaminu pozostaw puste
+8. Kliknij "Załóż konto"</t>
+  </si>
+  <si>
+    <t>1. Wprowadź imie
+2. Wprowadź nazwisko
+3. Wprowadź Email
+4. Wprowadź telefon
+5. Wprowadź hasło
+6. Powtórz hasło
+7. Zaakceptuj regulamin
+8. Wyraź zgodę na przesyłanie informacji handlowej
+9. Wyraź zgodę na wykorzystanie danych do celów marketingowych
+10. Kliknij "Załóż konto"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Kliknij "Załóż konto"
+</t>
   </si>
 </sst>
 </file>
@@ -442,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -459,9 +453,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -805,512 +796,512 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="300" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
